--- a/excel_file.xlsx
+++ b/excel_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="1" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -57,12 +57,6 @@
       <color theme="1"/>
       <sz val="14"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -111,9 +105,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -481,17 +472,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25.140625" customWidth="1" style="6" min="1" max="1"/>
-    <col width="27.5703125" customWidth="1" style="6" min="2" max="2"/>
-    <col width="26.5703125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="25.140625" customWidth="1" style="5" min="1" max="1"/>
+    <col width="35.42578125" customWidth="1" style="5" min="2" max="2"/>
+    <col width="26.5703125" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,24 +502,173 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Dates</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dates price in saudi arabia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>Dhaka</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Rongpur</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jamate Islam Bangladesh</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Cricket</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Momey</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Int</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Look</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>by</t>
         </is>
       </c>
     </row>
@@ -546,17 +686,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.7109375" customWidth="1" style="6" min="1" max="1"/>
-    <col width="30.85546875" customWidth="1" style="6" min="2" max="2"/>
-    <col width="27.42578125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="16.7109375" customWidth="1" style="5" min="1" max="1"/>
+    <col width="30.85546875" customWidth="1" style="5" min="2" max="2"/>
+    <col width="27.42578125" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="6" thickBot="1">
+    <row r="1" ht="19.5" customHeight="1" s="5">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Keyword</t>
@@ -573,70 +713,70 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Baby</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Cricket</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Momey</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Int</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Look</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>By</t>
@@ -657,17 +797,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27.85546875" customWidth="1" style="6" min="1" max="1"/>
-    <col width="27.140625" customWidth="1" style="6" min="2" max="2"/>
-    <col width="23.5703125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="27.85546875" customWidth="1" style="5" min="1" max="1"/>
+    <col width="27.140625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="23.5703125" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="6" thickBot="1">
+    <row r="1" ht="19.5" customHeight="1" s="5">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Keyword</t>
@@ -684,70 +824,70 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Baby</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Cricket</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Momey</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Int</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Look</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>By</t>
@@ -768,17 +908,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C11"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" style="6" min="1" max="1"/>
-    <col width="21.140625" customWidth="1" style="6" min="2" max="2"/>
-    <col width="22.42578125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="19" customWidth="1" style="5" min="1" max="1"/>
+    <col width="21.140625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="22.42578125" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="6" thickBot="1">
+    <row r="1" ht="19.5" customHeight="1" s="5">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Keyword</t>
@@ -795,70 +935,70 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Baby</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Cricket</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Momey</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Int</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Look</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>By</t>
@@ -879,17 +1019,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.85546875" customWidth="1" style="6" min="1" max="1"/>
-    <col width="27.85546875" customWidth="1" style="6" min="2" max="2"/>
-    <col width="27.5703125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="16.85546875" customWidth="1" style="5" min="1" max="1"/>
+    <col width="27.85546875" customWidth="1" style="5" min="2" max="2"/>
+    <col width="27.5703125" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="6" thickBot="1">
+    <row r="1" ht="19.5" customHeight="1" s="5">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Keyword</t>
@@ -906,71 +1046,71 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Baby</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Cricket</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Momey</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Int</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Look</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>By</t>
         </is>
@@ -990,17 +1130,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C11"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23.42578125" customWidth="1" style="6" min="1" max="1"/>
-    <col width="20.5703125" customWidth="1" style="6" min="2" max="2"/>
-    <col width="24.85546875" customWidth="1" style="6" min="3" max="3"/>
+    <col width="23.42578125" customWidth="1" style="5" min="1" max="1"/>
+    <col width="20.5703125" customWidth="1" style="5" min="2" max="2"/>
+    <col width="24.85546875" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="6" thickBot="1">
+    <row r="1" ht="19.5" customHeight="1" s="5">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Keyword</t>
@@ -1017,70 +1157,70 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="6" thickBot="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Baby</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Cricket</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Momey</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Int</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Look</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>By</t>
@@ -1100,14 +1240,14 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26.28515625" customWidth="1" style="6" min="1" max="2"/>
-    <col width="27.7109375" customWidth="1" style="6" min="3" max="3"/>
+    <col width="26.28515625" customWidth="1" style="5" min="1" max="2"/>
+    <col width="27.7109375" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customFormat="1" customHeight="1" s="2">
@@ -1127,7 +1267,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="2" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>Dates</t>
@@ -1144,156 +1284,66 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="6" thickBot="1">
+    <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="6" thickBot="1">
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Baby</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="6" thickBot="1">
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="6" thickBot="1">
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Cricket</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="6" thickBot="1">
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Momey</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="6" thickBot="1">
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Int</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="6" thickBot="1">
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Look</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="6" thickBot="1">
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="6" thickBot="1">
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>By</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>মাধ্যমিক ও উচ্চমাধ্যমিক শিক্ষা বোর্ড, ঢাকা · 5 জয়নাগ রোড, ঢাকা</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ঢাকা</t>
         </is>
       </c>
     </row>

--- a/excel_file.xlsx
+++ b/excel_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" state="visible" r:id="rId1"/>
@@ -474,8 +474,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -508,16 +508,6 @@
           <t>Dates</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dates price in saudi arabia</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Plant</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A3" s="1" t="inlineStr">
@@ -525,16 +515,6 @@
           <t>Dhaka</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Plant</t>
-        </is>
-      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
@@ -542,16 +522,6 @@
           <t>Baby</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Baby</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
@@ -559,16 +529,6 @@
           <t>School</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Baby</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
@@ -576,16 +536,6 @@
           <t>Cricket</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Baby</t>
-        </is>
-      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
@@ -593,16 +543,6 @@
           <t>Momey</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Baby</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A8" s="1" t="inlineStr">
@@ -610,16 +550,6 @@
           <t>Int</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Baby</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
@@ -627,16 +557,6 @@
           <t>Look</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Baby</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
@@ -644,31 +564,11 @@
           <t>Hello</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Baby</t>
-        </is>
-      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>By</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>by</t>
         </is>
       </c>
     </row>
@@ -685,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -719,6 +619,17 @@
           <t>Dates</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dates price in saudi arabia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dates
+Fruit</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A3" s="1" t="inlineStr">
@@ -726,6 +637,17 @@
           <t>Dhaka</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dhaka education board
+Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dhaka post</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
@@ -733,6 +655,17 @@
           <t>Baby</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Baby Girl
+Song by Dhvani Bhanushali and Guru Randhawa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>baby shark</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A5" s="1" t="inlineStr">
@@ -740,6 +673,17 @@
           <t>School</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>School 2017
+Television series</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A6" s="1" t="inlineStr">
@@ -747,6 +691,17 @@
           <t>Cricket</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cricket icc
+International Cricket Council — Cricket administrative body</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cricket</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A7" s="1" t="inlineStr">
@@ -761,6 +716,17 @@
           <t>Int</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Inter Miami CF
+Soccer club</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A9" s="1" t="inlineStr">
@@ -768,6 +734,16 @@
           <t>Look</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>look meaning in bengali</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A10" s="1" t="inlineStr">
@@ -775,11 +751,33 @@
           <t>Hello</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hello Hello! (Noodle &amp; Pals) [Sing-Along]
+Song by Noodle &amp; Pals and Super Simple Songs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>By</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Byeon Woo-seok
+South Korean actor and model</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>by</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1239,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1273,16 +1271,6 @@
           <t>Dates</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dates price in saudi arabia</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>dates</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="5" thickBot="1">
       <c r="A3" s="1" t="inlineStr">
